--- a/raw_data/20200818_saline/20200818_Sensor2_Test_23.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_23.xlsx
@@ -1,1097 +1,1513 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE3B095-D826-4AFB-89FA-D9F908E060A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>20170.013928</v>
       </c>
       <c r="B2" s="1">
-        <v>5.602782</v>
+        <v>5.6027820000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-306.787000</v>
+        <v>-306.78699999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>20180.368411</v>
+        <v>20180.368410999999</v>
       </c>
       <c r="G2" s="1">
         <v>5.605658</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.750000</v>
+        <v>1265.75</v>
       </c>
       <c r="I2" s="1">
-        <v>-264.441000</v>
+        <v>-264.44099999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>20190.803782</v>
+        <v>20190.803781999999</v>
       </c>
       <c r="L2" s="1">
-        <v>5.608557</v>
+        <v>5.6085570000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1300.340000</v>
+        <v>1300.3399999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.168000</v>
+        <v>-202.16800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>20201.925568</v>
+        <v>20201.925567999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.611646</v>
+        <v>5.6116460000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.787000</v>
+        <v>-183.78700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>20211.936785</v>
+        <v>20211.936785000002</v>
       </c>
       <c r="V2" s="1">
-        <v>5.614427</v>
+        <v>5.6144270000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1324.400000</v>
+        <v>1324.4</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.775000</v>
+        <v>-170.77500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>20222.074053</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.617243</v>
+        <v>5.6172430000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1341.500000</v>
+        <v>1341.5</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.623000</v>
+        <v>-168.62299999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>20232.264836</v>
+        <v>20232.264835999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.620074</v>
+        <v>5.6200739999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1354.290000</v>
+        <v>1354.29</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.461000</v>
+        <v>-178.46100000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>20242.370850</v>
+        <v>20242.370849999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.622881</v>
+        <v>5.6228809999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1374.800000</v>
+        <v>1374.8</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.474000</v>
+        <v>-208.47399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>20252.968862</v>
+        <v>20252.968862000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.625825</v>
+        <v>5.6258249999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.548000</v>
+        <v>-252.548</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>20263.884780</v>
+        <v>20263.88478</v>
       </c>
       <c r="AU2" s="1">
         <v>5.628857</v>
       </c>
       <c r="AV2" s="1">
-        <v>1421.050000</v>
+        <v>1421.05</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.898000</v>
+        <v>-312.89800000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>20275.038319</v>
+        <v>20275.038318999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.631955</v>
+        <v>5.6319549999999996</v>
       </c>
       <c r="BA2" s="1">
-        <v>1440.500000</v>
+        <v>1440.5</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.106000</v>
+        <v>-365.10599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>20286.043158</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.635012</v>
+        <v>5.6350119999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.830000</v>
+        <v>-613.83000000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>20296.627714</v>
+        <v>20296.627713999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.637952</v>
+        <v>5.6379520000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1681.880000</v>
+        <v>1681.88</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1058.970000</v>
+        <v>-1058.97</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>20307.723683</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.641034</v>
+        <v>5.6410340000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1978.300000</v>
+        <v>1978.3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1829.110000</v>
+        <v>-1829.11</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>20318.487894</v>
+        <v>20318.487894000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.644024</v>
+        <v>5.6440239999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.530000</v>
+        <v>2367.5300000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2718.920000</v>
+        <v>-2718.92</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>20329.555846</v>
+        <v>20329.555845999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.647099</v>
+        <v>5.6470989999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2856.260000</v>
+        <v>2856.26</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3684.020000</v>
+        <v>-3684.02</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>20340.708663</v>
+        <v>20340.708663000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.650197</v>
+        <v>5.6501970000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4298.190000</v>
+        <v>4298.1899999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6005.720000</v>
+        <v>-6005.72</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>20170.352200</v>
+        <v>20170.352200000001</v>
       </c>
       <c r="B3" s="1">
-        <v>5.602876</v>
+        <v>5.6028760000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1240.140000</v>
+        <v>1240.1400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-306.713000</v>
+        <v>-306.71300000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>20181.024645</v>
+        <v>20181.024645000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.605840</v>
+        <v>5.6058399999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>1265.090000</v>
+        <v>1265.0899999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.280000</v>
+        <v>-264.27999999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>20191.497148</v>
+        <v>20191.497147999999</v>
       </c>
       <c r="L3" s="1">
-        <v>5.608749</v>
+        <v>5.6087490000000004</v>
       </c>
       <c r="M3" s="1">
-        <v>1300.170000</v>
+        <v>1300.17</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.073000</v>
+        <v>-202.07300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>20202.035150</v>
+        <v>20202.03515</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.611676</v>
+        <v>5.6116760000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1311.800000</v>
+        <v>1311.8</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.739000</v>
+        <v>-183.739</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>20212.286464</v>
+        <v>20212.286464000001</v>
       </c>
       <c r="V3" s="1">
-        <v>5.614524</v>
+        <v>5.6145240000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1324.390000</v>
+        <v>1324.39</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.696000</v>
+        <v>-170.696</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>20222.424195</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.617340</v>
+        <v>5.6173400000000004</v>
       </c>
       <c r="AB3" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.443000</v>
+        <v>-168.44300000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>20232.643767</v>
+        <v>20232.643767000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>5.620179</v>
+        <v>5.6201790000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1354.250000</v>
+        <v>1354.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.365000</v>
+        <v>-178.36500000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>20242.935293</v>
+        <v>20242.935292999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.623038</v>
+        <v>5.6230380000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1374.820000</v>
+        <v>1374.82</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.447000</v>
+        <v>-208.447</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>20253.386955</v>
+        <v>20253.386955000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.625941</v>
+        <v>5.6259410000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1396.390000</v>
+        <v>1396.39</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.621000</v>
+        <v>-252.62100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>20264.336140</v>
+        <v>20264.336139999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.628982</v>
+        <v>5.6289819999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.874000</v>
+        <v>-312.87400000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>20275.461405</v>
+        <v>20275.461404999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.632073</v>
+        <v>5.6320730000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1440.560000</v>
+        <v>1440.56</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.125000</v>
+        <v>-365.125</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>20286.405663</v>
+        <v>20286.405663000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.635113</v>
+        <v>5.6351129999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1526.390000</v>
+        <v>1526.39</v>
       </c>
       <c r="BG3" s="1">
-        <v>-613.858000</v>
+        <v>-613.85799999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>20297.045344</v>
+        <v>20297.045343999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.638068</v>
+        <v>5.6380679999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1681.810000</v>
+        <v>1681.81</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1058.980000</v>
+        <v>-1058.98</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>20308.157508</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.641155</v>
+        <v>5.6411550000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1978.370000</v>
+        <v>1978.37</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1829.210000</v>
+        <v>-1829.21</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>20318.996756</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.644166</v>
+        <v>5.6441660000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2366.940000</v>
+        <v>2366.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2719.130000</v>
+        <v>-2719.13</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>20330.021829</v>
+        <v>20330.021829000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.647228</v>
+        <v>5.6472280000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2855.080000</v>
+        <v>2855.08</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3684.290000</v>
+        <v>-3684.29</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>20341.244805</v>
+        <v>20341.244804999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.650346</v>
+        <v>5.6503459999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4296.240000</v>
+        <v>4296.24</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6008.610000</v>
+        <v>-6008.61</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>20171.011879</v>
+        <v>20171.011879000001</v>
       </c>
       <c r="B4" s="1">
         <v>5.603059</v>
       </c>
       <c r="C4" s="1">
-        <v>1240.450000</v>
+        <v>1240.45</v>
       </c>
       <c r="D4" s="1">
-        <v>-306.527000</v>
+        <v>-306.52699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>20181.401114</v>
       </c>
       <c r="G4" s="1">
-        <v>5.605945</v>
+        <v>5.6059450000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1265.460000</v>
+        <v>1265.46</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.937000</v>
+        <v>-263.93700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>20191.878573</v>
+        <v>20191.878573000002</v>
       </c>
       <c r="L4" s="1">
-        <v>5.608855</v>
+        <v>5.6088550000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1300.050000</v>
+        <v>1300.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.664000</v>
+        <v>-201.66399999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>20202.373918</v>
+        <v>20202.373918000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.611771</v>
+        <v>5.6117710000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1311.810000</v>
+        <v>1311.81</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.799000</v>
+        <v>-183.79900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>20212.628706</v>
       </c>
       <c r="V4" s="1">
-        <v>5.614619</v>
+        <v>5.6146190000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.723000</v>
+        <v>-170.72300000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>20222.770900</v>
+        <v>20222.7709</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.617436</v>
+        <v>5.6174359999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>1341.510000</v>
+        <v>1341.51</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.450000</v>
+        <v>-168.45</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>20233.079254</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.620300</v>
+        <v>5.6203000000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1354.250000</v>
+        <v>1354.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.505000</v>
+        <v>-178.505</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>20243.460023</v>
@@ -1100,1950 +1516,1950 @@
         <v>5.623183</v>
       </c>
       <c r="AL4" s="1">
-        <v>1374.780000</v>
+        <v>1374.78</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.503000</v>
+        <v>-208.50299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>20253.728215</v>
+        <v>20253.728214999999</v>
       </c>
       <c r="AP4" s="1">
         <v>5.626036</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.611000</v>
+        <v>-252.61099999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>20264.700699</v>
+        <v>20264.700699000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.629084</v>
+        <v>5.6290839999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.865000</v>
+        <v>-312.86500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>20275.808110</v>
+        <v>20275.808110000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>5.632169</v>
+        <v>5.6321690000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1440.550000</v>
+        <v>1440.55</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.103000</v>
+        <v>-365.10300000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>20286.765230</v>
+        <v>20286.765230000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.635213</v>
+        <v>5.6352130000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.813000</v>
+        <v>-613.81299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>20297.796783</v>
+        <v>20297.796783000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.638277</v>
+        <v>5.6382770000000004</v>
       </c>
       <c r="BK4" s="1">
-        <v>1681.840000</v>
+        <v>1681.84</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>20308.578787</v>
+        <v>20308.578786999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.641272</v>
+        <v>5.6412719999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1978.250000</v>
+        <v>1978.25</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1829.230000</v>
+        <v>-1829.23</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>20319.429796</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.644286</v>
+        <v>5.6442860000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.560000</v>
+        <v>2366.56</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2719.260000</v>
+        <v>-2719.26</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>20330.445445</v>
+        <v>20330.445445000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.647346</v>
+        <v>5.6473459999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2855.150000</v>
+        <v>2855.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3684.940000</v>
+        <v>-3684.94</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>20341.774037</v>
+        <v>20341.774036999999</v>
       </c>
       <c r="CD4" s="1">
         <v>5.650493</v>
       </c>
       <c r="CE4" s="1">
-        <v>4278.610000</v>
+        <v>4278.6099999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6001.460000</v>
+        <v>-6001.46</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>20171.378422</v>
+        <v>20171.378422000002</v>
       </c>
       <c r="B5" s="1">
-        <v>5.603161</v>
+        <v>5.6031610000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1240.200000</v>
+        <v>1240.2</v>
       </c>
       <c r="D5" s="1">
-        <v>-306.576000</v>
+        <v>-306.57600000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>20181.747323</v>
       </c>
       <c r="G5" s="1">
-        <v>5.606041</v>
+        <v>5.6060410000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-264.211000</v>
+        <v>-264.21100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>20192.221805</v>
+        <v>20192.221805000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.608951</v>
+        <v>5.6089510000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1300.000000</v>
+        <v>1300</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.089000</v>
+        <v>-202.089</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>20202.722146</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.611867</v>
+        <v>5.6118670000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1311.740000</v>
+        <v>1311.74</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.846000</v>
+        <v>-183.846</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>20213.051327</v>
+        <v>20213.051327000001</v>
       </c>
       <c r="V5" s="1">
-        <v>5.614736</v>
+        <v>5.6147359999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.741000</v>
+        <v>-170.74100000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>20223.193522</v>
+        <v>20223.193522000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.617554</v>
+        <v>5.6175540000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1341.570000</v>
+        <v>1341.57</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.914000</v>
+        <v>-168.91399999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>20233.331221</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.620370</v>
+        <v>5.6203700000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1354.280000</v>
+        <v>1354.28</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.482000</v>
+        <v>-178.482</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>20243.811191</v>
+        <v>20243.811191000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.623281</v>
+        <v>5.6232810000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1374.780000</v>
+        <v>1374.78</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.493000</v>
+        <v>-208.49299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>20254.092265</v>
+        <v>20254.092264999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.626137</v>
+        <v>5.6261369999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.640000</v>
+        <v>-252.64</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>20265.065259</v>
+        <v>20265.065258999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.629185</v>
+        <v>5.6291849999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1421.040000</v>
+        <v>1421.04</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.873000</v>
+        <v>-312.87299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>20276.174653</v>
+        <v>20276.174652999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.632271</v>
+        <v>5.6322710000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1440.540000</v>
+        <v>1440.54</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.091000</v>
+        <v>-365.09100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>20287.486909</v>
+        <v>20287.486908999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.635413</v>
+        <v>5.6354129999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1526.390000</v>
+        <v>1526.39</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.846000</v>
+        <v>-613.846</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>20298.199535</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.638389</v>
+        <v>5.6383890000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1681.780000</v>
+        <v>1681.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.030000</v>
+        <v>-1059.03</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>20308.976081</v>
+        <v>20308.976081000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.641382</v>
+        <v>5.6413820000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1978.120000</v>
+        <v>1978.12</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1829.360000</v>
+        <v>-1829.36</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>20319.841970</v>
+        <v>20319.841970000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.644401</v>
+        <v>5.6444010000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>2366.500000</v>
+        <v>2366.5</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2718.900000</v>
+        <v>-2718.9</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>20331.179030</v>
+        <v>20331.179029999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.647550</v>
+        <v>5.6475499999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2855.410000</v>
+        <v>2855.41</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3684.450000</v>
+        <v>-3684.45</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>20342.622197</v>
+        <v>20342.622197000001</v>
       </c>
       <c r="CD5" s="1">
         <v>5.650728</v>
       </c>
       <c r="CE5" s="1">
-        <v>4295.730000</v>
+        <v>4295.7299999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6005.670000</v>
+        <v>-6005.67</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>20171.718214</v>
       </c>
       <c r="B6" s="1">
-        <v>5.603255</v>
+        <v>5.6032549999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1240.350000</v>
+        <v>1240.3499999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-306.805000</v>
+        <v>-306.80500000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>20182.097998</v>
+        <v>20182.097998000001</v>
       </c>
       <c r="G6" s="1">
-        <v>5.606138</v>
+        <v>5.6061379999999996</v>
       </c>
       <c r="H6" s="1">
-        <v>1266.170000</v>
+        <v>1266.17</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.548000</v>
+        <v>-264.548</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>20192.565068</v>
       </c>
       <c r="L6" s="1">
-        <v>5.609046</v>
+        <v>5.6090460000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1300.140000</v>
+        <v>1300.1400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.465000</v>
+        <v>-201.465</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>20203.133804</v>
+        <v>20203.133804000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.611982</v>
+        <v>5.6119820000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.855000</v>
+        <v>-183.85499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>20213.322112</v>
+        <v>20213.322112000002</v>
       </c>
       <c r="V6" s="1">
-        <v>5.614812</v>
+        <v>5.6148119999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.650000</v>
+        <v>-170.65</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>20223.473731</v>
+        <v>20223.473730999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.617632</v>
+        <v>5.6176320000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.629000</v>
+        <v>-168.62899999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>20233.671508</v>
+        <v>20233.671507999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.620464</v>
+        <v>5.6204640000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.430000</v>
+        <v>-178.43</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>20244.159382</v>
+        <v>20244.159382000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.623378</v>
+        <v>5.6233779999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1374.780000</v>
+        <v>1374.78</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.474000</v>
+        <v>-208.47399999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>20254.452361</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.626237</v>
+        <v>5.6262369999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.584000</v>
+        <v>-252.584</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>20265.795370</v>
+        <v>20265.79537</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.629388</v>
+        <v>5.6293879999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>1421.010000</v>
+        <v>1421.01</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.855000</v>
+        <v>-312.85500000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>20276.895340</v>
+        <v>20276.895339999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.632471</v>
+        <v>5.6324709999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1440.540000</v>
+        <v>1440.54</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.077000</v>
+        <v>-365.077</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>20287.848494</v>
+        <v>20287.848494000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.635513</v>
+        <v>5.6355130000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1526.370000</v>
+        <v>1526.37</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.804000</v>
+        <v>-613.80399999999997</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>20298.574480</v>
+        <v>20298.574479999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.638493</v>
+        <v>5.6384930000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1681.790000</v>
+        <v>1681.79</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>20309.398176</v>
+        <v>20309.398175999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.641499</v>
+        <v>5.6414989999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.960000</v>
+        <v>1977.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1829.350000</v>
+        <v>-1829.35</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>20320.569073</v>
+        <v>20320.569072999999</v>
       </c>
       <c r="BT6" s="1">
         <v>5.644603</v>
       </c>
       <c r="BU6" s="1">
-        <v>2366.220000</v>
+        <v>2366.2199999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2718.450000</v>
+        <v>-2718.45</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>20331.293571</v>
+        <v>20331.293570999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.647582</v>
+        <v>5.6475819999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2855.200000</v>
+        <v>2855.2</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3685.380000</v>
+        <v>-3685.38</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>20342.849860</v>
+        <v>20342.849859999998</v>
       </c>
       <c r="CD6" s="1">
         <v>5.650792</v>
       </c>
       <c r="CE6" s="1">
-        <v>4293.870000</v>
+        <v>4293.87</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6006.980000</v>
+        <v>-6006.98</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>20172.060423</v>
+        <v>20172.060422999999</v>
       </c>
       <c r="B7" s="1">
-        <v>5.603350</v>
+        <v>5.6033499999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-306.813000</v>
+        <v>-306.81299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>20182.501208</v>
+        <v>20182.501208000001</v>
       </c>
       <c r="G7" s="1">
-        <v>5.606250</v>
+        <v>5.6062500000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1265.760000</v>
+        <v>1265.76</v>
       </c>
       <c r="I7" s="1">
-        <v>-264.506000</v>
+        <v>-264.50599999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>20193.263899</v>
+        <v>20193.263899000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.609240</v>
+        <v>5.6092399999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1300.320000</v>
+        <v>1300.32</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.001000</v>
+        <v>-202.001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>20203.427422</v>
+        <v>20203.427422000001</v>
       </c>
       <c r="Q7" s="1">
         <v>5.612063</v>
       </c>
       <c r="R7" s="1">
-        <v>1311.690000</v>
+        <v>1311.69</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.824000</v>
+        <v>-183.82400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>20213.668815</v>
+        <v>20213.668815000001</v>
       </c>
       <c r="V7" s="1">
-        <v>5.614908</v>
+        <v>5.6149079999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.596000</v>
+        <v>-170.596</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>20223.819972</v>
+        <v>20223.819972000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.617728</v>
+        <v>5.6177279999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>1341.590000</v>
+        <v>1341.59</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.668000</v>
+        <v>-168.66800000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>20234.016228</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.620560</v>
+        <v>5.6205600000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.418000</v>
+        <v>-178.41800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>20244.851799</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.623570</v>
+        <v>5.62357</v>
       </c>
       <c r="AL7" s="1">
-        <v>1374.760000</v>
+        <v>1374.76</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.421000</v>
+        <v>-208.42099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>20255.170072</v>
+        <v>20255.170072000001</v>
       </c>
       <c r="AP7" s="1">
         <v>5.626436</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.609000</v>
+        <v>-252.60900000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>20266.184729</v>
+        <v>20266.184729000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.629496</v>
+        <v>5.6294959999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>1421.020000</v>
+        <v>1421.02</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.850000</v>
+        <v>-312.85000000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>20277.282715</v>
+        <v>20277.282715000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.632579</v>
+        <v>5.6325789999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1440.550000</v>
+        <v>1440.55</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.099000</v>
+        <v>-365.09899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>20288.210604</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.635614</v>
+        <v>5.6356140000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1526.420000</v>
+        <v>1526.42</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.808000</v>
+        <v>-613.80799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>20299.255486</v>
+        <v>20299.255485999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.638682</v>
+        <v>5.6386820000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1681.780000</v>
+        <v>1681.78</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>20310.163503</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.641712</v>
+        <v>5.6417120000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.970000</v>
+        <v>1977.97</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1829.300000</v>
+        <v>-1829.3</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>20320.702497</v>
+        <v>20320.702496999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.644640</v>
+        <v>5.6446399999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2366.110000</v>
+        <v>2366.11</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2718.260000</v>
+        <v>-2718.26</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>20331.742947</v>
+        <v>20331.742946999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.647706</v>
+        <v>5.6477060000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2854.920000</v>
+        <v>2854.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3684.080000</v>
+        <v>-3684.08</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>20343.368179</v>
+        <v>20343.368179000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>5.650936</v>
+        <v>5.6509359999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>4282.100000</v>
+        <v>4282.1000000000004</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5999.810000</v>
+        <v>-5999.81</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>20172.465653</v>
+        <v>20172.465652999999</v>
       </c>
       <c r="B8" s="1">
-        <v>5.603463</v>
+        <v>5.6034629999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>1240.430000</v>
+        <v>1240.43</v>
       </c>
       <c r="D8" s="1">
-        <v>-306.466000</v>
+        <v>-306.46600000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>20182.799837</v>
+        <v>20182.799836999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5.606333</v>
+        <v>5.6063330000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>1265.610000</v>
+        <v>1265.6099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-264.705000</v>
+        <v>-264.70499999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>20193.612089</v>
+        <v>20193.612088999998</v>
       </c>
       <c r="L8" s="1">
         <v>5.609337</v>
       </c>
       <c r="M8" s="1">
-        <v>1300.200000</v>
+        <v>1300.2</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.064000</v>
+        <v>-202.06399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>20203.773628</v>
+        <v>20203.773627999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.612159</v>
+        <v>5.6121590000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1311.670000</v>
+        <v>1311.67</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.782000</v>
+        <v>-183.78200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>20214.013038</v>
+        <v>20214.013038000001</v>
       </c>
       <c r="V8" s="1">
-        <v>5.615004</v>
+        <v>5.6150039999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1324.540000</v>
+        <v>1324.54</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.751000</v>
+        <v>-170.751</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>20224.170113</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.617825</v>
+        <v>5.6178249999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.603000</v>
+        <v>-168.60300000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>20234.705167</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.620751</v>
+        <v>5.6207510000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>1354.320000</v>
+        <v>1354.32</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.450000</v>
+        <v>-178.45</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>20245.202966</v>
+        <v>20245.202966000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.623667</v>
+        <v>5.6236670000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1374.810000</v>
+        <v>1374.81</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.380000</v>
+        <v>-208.38</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>20255.528987</v>
+        <v>20255.528987000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.626536</v>
+        <v>5.6265359999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.628000</v>
+        <v>-252.62799999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>20266.550301</v>
+        <v>20266.550300999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.629597</v>
+        <v>5.6295970000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1421.060000</v>
+        <v>1421.06</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.891000</v>
+        <v>-312.89100000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>20277.944377</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.632762</v>
+        <v>5.6327619999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1440.530000</v>
+        <v>1440.53</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.095000</v>
+        <v>-365.09500000000003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>20288.890589</v>
+        <v>20288.890588999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.635803</v>
+        <v>5.6358030000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1526.410000</v>
+        <v>1526.41</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.817000</v>
+        <v>-613.81700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>20299.366094</v>
+        <v>20299.366094000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.638713</v>
+        <v>5.6387130000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1681.760000</v>
+        <v>1681.76</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>20310.637220</v>
+        <v>20310.637220000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.641844</v>
+        <v>5.6418439999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1978.060000</v>
+        <v>1978.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1829.220000</v>
+        <v>-1829.22</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>20321.112689</v>
+        <v>20321.112689000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.644754</v>
+        <v>5.6447539999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.970000</v>
+        <v>2365.9699999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2718.160000</v>
+        <v>-2718.16</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>20332.174466</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.647826</v>
+        <v>5.6478260000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2854.660000</v>
+        <v>2854.66</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3685.010000</v>
+        <v>-3685.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>20343.888483</v>
+        <v>20343.888482999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.651080</v>
+        <v>5.6510800000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>4283.570000</v>
+        <v>4283.57</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6020.170000</v>
+        <v>-6020.17</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>20172.755316</v>
+        <v>20172.755315999999</v>
       </c>
       <c r="B9" s="1">
-        <v>5.603543</v>
+        <v>5.6035430000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1240.120000</v>
+        <v>1240.1199999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-306.995000</v>
+        <v>-306.995</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>20183.141542</v>
+        <v>20183.141542000001</v>
       </c>
       <c r="G9" s="1">
-        <v>5.606428</v>
+        <v>5.6064280000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.540000</v>
+        <v>1265.54</v>
       </c>
       <c r="I9" s="1">
-        <v>-264.430000</v>
+        <v>-264.43</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>20193.955849</v>
+        <v>20193.955849000002</v>
       </c>
       <c r="L9" s="1">
         <v>5.609432</v>
       </c>
       <c r="M9" s="1">
-        <v>1300.170000</v>
+        <v>1300.17</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.112000</v>
+        <v>-202.11199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>20204.122843</v>
+        <v>20204.122843000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.612256</v>
+        <v>5.6122560000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>1311.810000</v>
+        <v>1311.81</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.753000</v>
+        <v>-183.75299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>20214.699999</v>
       </c>
       <c r="V9" s="1">
-        <v>5.615194</v>
+        <v>5.6151939999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1324.590000</v>
+        <v>1324.59</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.646000</v>
+        <v>-170.64599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>20224.871952</v>
+        <v>20224.871952000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.618020</v>
+        <v>5.6180199999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.653000</v>
+        <v>-168.65299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>20235.047427</v>
+        <v>20235.047427000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.620847</v>
+        <v>5.6208470000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1354.300000</v>
+        <v>1354.3</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.482000</v>
+        <v>-178.482</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>20245.554132</v>
+        <v>20245.554132000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.623765</v>
+        <v>5.6237649999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1374.760000</v>
+        <v>1374.76</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.396000</v>
+        <v>-208.39599999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>20255.894231</v>
+        <v>20255.894230999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.626637</v>
+        <v>5.6266369999999997</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.568000</v>
+        <v>-252.56800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>20267.220376</v>
+        <v>20267.220376000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.629783</v>
+        <v>5.6297829999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1421.060000</v>
+        <v>1421.06</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>20278.358041</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.632877</v>
+        <v>5.6328769999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1440.550000</v>
+        <v>1440.55</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.102000</v>
+        <v>-365.10199999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>20289.319131</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.635922</v>
+        <v>5.6359219999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1526.450000</v>
+        <v>1526.45</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.801000</v>
+        <v>-613.80100000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>20299.724949</v>
+        <v>20299.724948999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.638812</v>
+        <v>5.6388119999999997</v>
       </c>
       <c r="BK9" s="1">
-        <v>1681.790000</v>
+        <v>1681.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>20311.043406</v>
+        <v>20311.043406000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.641957</v>
+        <v>5.6419569999999997</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.940000</v>
+        <v>1977.94</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1829.320000</v>
+        <v>-1829.32</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>20321.547680</v>
+        <v>20321.54768</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.644874</v>
+        <v>5.6448739999999997</v>
       </c>
       <c r="BU9" s="1">
-        <v>2366.010000</v>
+        <v>2366.0100000000002</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2717.430000</v>
+        <v>-2717.43</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>20332.594616</v>
+        <v>20332.594615999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.647943</v>
+        <v>5.6479429999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2855.100000</v>
+        <v>2855.1</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3684.560000</v>
+        <v>-3684.56</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>20344.427170</v>
+        <v>20344.427169999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.651230</v>
+        <v>5.65123</v>
       </c>
       <c r="CE9" s="1">
-        <v>4292.950000</v>
+        <v>4292.95</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5998.270000</v>
+        <v>-5998.27</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>20173.098548</v>
+        <v>20173.098548000002</v>
       </c>
       <c r="B10" s="1">
-        <v>5.603638</v>
+        <v>5.6036380000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.340000</v>
+        <v>1240.3399999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-306.733000</v>
+        <v>-306.733</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>20183.488246</v>
+        <v>20183.488246000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5.606525</v>
+        <v>5.6065250000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1264.470000</v>
+        <v>1264.47</v>
       </c>
       <c r="I10" s="1">
-        <v>-264.962000</v>
+        <v>-264.96199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>20194.646248</v>
+        <v>20194.646248000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.609624</v>
+        <v>5.6096240000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1300.130000</v>
+        <v>1300.1300000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.832000</v>
+        <v>-201.83199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>20204.819724</v>
+        <v>20204.819724000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.612450</v>
+        <v>5.6124499999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.802000</v>
+        <v>-183.80199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>20215.043230</v>
+        <v>20215.043229999999</v>
       </c>
       <c r="V10" s="1">
-        <v>5.615290</v>
+        <v>5.6152899999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.662000</v>
+        <v>-170.66200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>20225.216671</v>
+        <v>20225.216670999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.618116</v>
+        <v>5.6181159999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>1341.520000</v>
+        <v>1341.52</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.564000</v>
+        <v>-168.56399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>20235.396577</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.620943</v>
+        <v>5.6209429999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>1354.350000</v>
+        <v>1354.35</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.535000</v>
+        <v>-178.535</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>20246.201908</v>
+        <v>20246.201907999999</v>
       </c>
       <c r="AK10" s="1">
         <v>5.623945</v>
       </c>
       <c r="AL10" s="1">
-        <v>1374.750000</v>
+        <v>1374.75</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.395000</v>
+        <v>-208.39500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>20256.553910</v>
+        <v>20256.553909999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.626821</v>
+        <v>5.6268209999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1396.390000</v>
+        <v>1396.39</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.597000</v>
+        <v>-252.59700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>20267.677879</v>
+        <v>20267.677878999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.629911</v>
+        <v>5.6299109999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1421.060000</v>
+        <v>1421.06</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.862000</v>
+        <v>-312.86200000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>20278.742939</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.632984</v>
+        <v>5.6329840000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1440.520000</v>
+        <v>1440.52</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.059000</v>
+        <v>-365.05900000000003</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>20289.679226</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.636022</v>
+        <v>5.6360219999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.784000</v>
+        <v>-613.78399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>20300.100668</v>
+        <v>20300.100667999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.638917</v>
+        <v>5.6389170000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1681.740000</v>
+        <v>1681.74</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1058.960000</v>
+        <v>-1058.96</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>20311.456111</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.642071</v>
+        <v>5.6420709999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.910000</v>
+        <v>1977.91</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1829.050000</v>
+        <v>-1829.05</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>20321.973743</v>
+        <v>20321.973742999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.644993</v>
+        <v>5.6449930000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.650000</v>
+        <v>2365.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2717.390000</v>
+        <v>-2717.39</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>20333.016675</v>
+        <v>20333.016674999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.648060</v>
+        <v>5.6480600000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2855.330000</v>
+        <v>2855.33</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3684.410000</v>
+        <v>-3684.41</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>20344.968306</v>
+        <v>20344.968305999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.651380</v>
+        <v>5.6513799999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>4274.160000</v>
+        <v>4274.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6008.700000</v>
+        <v>-6008.7</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>20173.436831</v>
+        <v>20173.436830999999</v>
       </c>
       <c r="B11" s="1">
-        <v>5.603732</v>
+        <v>5.6037319999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1240.490000</v>
+        <v>1240.49</v>
       </c>
       <c r="D11" s="1">
-        <v>-306.766000</v>
+        <v>-306.76600000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>20184.176198</v>
+        <v>20184.176198000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5.606716</v>
+        <v>5.6067159999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>1265.330000</v>
+        <v>1265.33</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.800000</v>
+        <v>-264.8</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>20194.992951</v>
       </c>
       <c r="L11" s="1">
-        <v>5.609720</v>
+        <v>5.6097200000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1300.270000</v>
+        <v>1300.27</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.932000</v>
+        <v>-201.93199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>20205.169370</v>
+        <v>20205.16937</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.612547</v>
+        <v>5.6125470000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.847000</v>
+        <v>-183.84700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>20215.386462</v>
+        <v>20215.386461999999</v>
       </c>
       <c r="V11" s="1">
-        <v>5.615385</v>
+        <v>5.6153849999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1324.480000</v>
+        <v>1324.48</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.749000</v>
+        <v>-170.749</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>20225.563872</v>
+        <v>20225.563871999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.618212</v>
+        <v>5.6182119999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1341.530000</v>
+        <v>1341.53</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.584000</v>
+        <v>-168.584</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>20236.040369</v>
+        <v>20236.040368999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.621122</v>
+        <v>5.6211219999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>1354.110000</v>
+        <v>1354.11</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.380000</v>
+        <v>-178.38</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>20246.600723</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.624056</v>
+        <v>5.6240560000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>1374.790000</v>
+        <v>1374.79</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.405000</v>
+        <v>-208.405</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>20257.004277</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.626946</v>
+        <v>5.6269460000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.612000</v>
+        <v>-252.61199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>20268.044516</v>
+        <v>20268.044516000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.630012</v>
+        <v>5.6300119999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1421.050000</v>
+        <v>1421.05</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.866000</v>
+        <v>-312.86599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>20279.122873</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.633090</v>
+        <v>5.6330900000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1440.530000</v>
+        <v>1440.53</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.096000</v>
+        <v>-365.096</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>20290.038857</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.636122</v>
+        <v>5.6361220000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1526.410000</v>
+        <v>1526.41</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.872000</v>
+        <v>-613.87199999999996</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>20300.515324</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.639032</v>
+        <v>5.6390320000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1681.780000</v>
+        <v>1681.78</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1058.940000</v>
+        <v>-1058.94</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>20311.848941</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.642180</v>
+        <v>5.6421799999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1978.000000</v>
+        <v>1978</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1829.130000</v>
+        <v>-1829.13</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>20322.386416</v>
+        <v>20322.386416000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.645107</v>
+        <v>5.6451070000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.410000</v>
+        <v>2365.41</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2717.110000</v>
+        <v>-2717.11</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>20333.443728</v>
+        <v>20333.443727999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.648179</v>
+        <v>5.6481789999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2854.730000</v>
+        <v>2854.73</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3683.870000</v>
+        <v>-3683.87</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>20345.504140</v>
+        <v>20345.504140000001</v>
       </c>
       <c r="CD11" s="1">
         <v>5.651529</v>
       </c>
       <c r="CE11" s="1">
-        <v>4294.280000</v>
+        <v>4294.28</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6011.770000</v>
+        <v>-6011.77</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>20174.122291</v>
       </c>
@@ -3051,58 +3467,58 @@
         <v>5.603923</v>
       </c>
       <c r="C12" s="1">
-        <v>1240.360000</v>
+        <v>1240.3599999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-306.603000</v>
+        <v>-306.60300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>20184.520949</v>
+        <v>20184.520949000002</v>
       </c>
       <c r="G12" s="1">
-        <v>5.606811</v>
+        <v>5.6068110000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>1265.010000</v>
+        <v>1265.01</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.491000</v>
+        <v>-264.49099999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>20195.339655</v>
       </c>
       <c r="L12" s="1">
-        <v>5.609817</v>
+        <v>5.6098169999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>1300.360000</v>
+        <v>1300.3599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.137000</v>
+        <v>-202.137</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>20205.517066</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.612644</v>
+        <v>5.6126440000000004</v>
       </c>
       <c r="R12" s="1">
-        <v>1311.720000</v>
+        <v>1311.72</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.830000</v>
+        <v>-183.83</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>20216.030303</v>
@@ -3111,225 +3527,225 @@
         <v>5.615564</v>
       </c>
       <c r="W12" s="1">
-        <v>1324.450000</v>
+        <v>1324.45</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.764000</v>
+        <v>-170.76400000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>20226.284101</v>
+        <v>20226.284101000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.618412</v>
+        <v>5.6184120000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1341.380000</v>
+        <v>1341.38</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.307000</v>
+        <v>-168.30699999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>20236.424768</v>
+        <v>20236.424768000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.621229</v>
+        <v>5.6212289999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1354.220000</v>
+        <v>1354.22</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.469000</v>
+        <v>-178.46899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>20246.938468</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.624150</v>
+        <v>5.6241500000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1374.770000</v>
+        <v>1374.77</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.371000</v>
+        <v>-208.37100000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>20257.365893</v>
+        <v>20257.365892999998</v>
       </c>
       <c r="AP12" s="1">
         <v>5.627046</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.571000</v>
+        <v>-252.571</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>20268.409286</v>
+        <v>20268.409285999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.630114</v>
+        <v>5.6301139999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1421.080000</v>
+        <v>1421.08</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.816000</v>
+        <v>-312.81599999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>20279.544504</v>
+        <v>20279.544504000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.633207</v>
+        <v>5.6332069999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1440.510000</v>
+        <v>1440.51</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.107000</v>
+        <v>-365.10700000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>20290.455001</v>
+        <v>20290.455000999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.636238</v>
+        <v>5.6362379999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.774000</v>
+        <v>-613.774</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>20300.862524</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.639128</v>
+        <v>5.6391280000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1681.820000</v>
+        <v>1681.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1058.900000</v>
+        <v>-1058.9000000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>20312.269059</v>
+        <v>20312.269058999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.642297</v>
+        <v>5.6422970000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.870000</v>
+        <v>1977.87</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1829.150000</v>
+        <v>-1829.15</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>20322.817971</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.645227</v>
+        <v>5.6452270000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.520000</v>
+        <v>2365.52</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2716.660000</v>
+        <v>-2716.66</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>20333.859411</v>
+        <v>20333.859411000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.648294</v>
+        <v>5.6482939999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2855.310000</v>
+        <v>2855.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3684.800000</v>
+        <v>-3684.8</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>20346.044625</v>
+        <v>20346.044624999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.651679</v>
+        <v>5.6516789999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>4282.820000</v>
+        <v>4282.82</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5998.140000</v>
+        <v>-5998.14</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>20174.466515</v>
       </c>
       <c r="B13" s="1">
-        <v>5.604018</v>
+        <v>5.6040179999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.670000</v>
+        <v>1240.67</v>
       </c>
       <c r="D13" s="1">
-        <v>-306.662000</v>
+        <v>-306.66199999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>20184.866630</v>
+        <v>20184.86663</v>
       </c>
       <c r="G13" s="1">
-        <v>5.606907</v>
+        <v>5.6069069999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>1264.520000</v>
+        <v>1264.52</v>
       </c>
       <c r="I13" s="1">
-        <v>-264.964000</v>
+        <v>-264.964</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>20195.992886</v>
@@ -3338,632 +3754,632 @@
         <v>5.609998</v>
       </c>
       <c r="M13" s="1">
-        <v>1300.570000</v>
+        <v>1300.57</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.040000</v>
+        <v>-202.04</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>20206.163880</v>
+        <v>20206.16388</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.612823</v>
+        <v>5.6128229999999997</v>
       </c>
       <c r="R13" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.741000</v>
+        <v>-183.74100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>20216.413179</v>
+        <v>20216.413178999999</v>
       </c>
       <c r="V13" s="1">
-        <v>5.615670</v>
+        <v>5.6156699999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.676000</v>
+        <v>-170.67599999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>20226.610926</v>
+        <v>20226.610926000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.618503</v>
+        <v>5.6185029999999996</v>
       </c>
       <c r="AB13" s="1">
-        <v>1341.390000</v>
+        <v>1341.39</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.517000</v>
+        <v>-168.517</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>20236.767536</v>
+        <v>20236.767535999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.621324</v>
+        <v>5.6213240000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>1354.150000</v>
+        <v>1354.15</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.352000</v>
+        <v>-178.352</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>20247.296329</v>
+        <v>20247.296329000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.624249</v>
+        <v>5.6242489999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1374.790000</v>
+        <v>1374.79</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.386000</v>
+        <v>-208.386</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>20257.723972</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.627146</v>
+        <v>5.6271459999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.618000</v>
+        <v>-252.61799999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>20268.821959</v>
+        <v>20268.821959000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.630228</v>
+        <v>5.6302279999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>1421.020000</v>
+        <v>1421.02</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.838000</v>
+        <v>-312.83800000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>20279.843385</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.633290</v>
+        <v>5.6332899999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>1440.490000</v>
+        <v>1440.49</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.078000</v>
+        <v>-365.07799999999997</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>20290.764968</v>
+        <v>20290.764967999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.636324</v>
+        <v>5.6363240000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1526.380000</v>
+        <v>1526.38</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.778000</v>
+        <v>-613.77800000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>20301.249899</v>
+        <v>20301.249898999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.639236</v>
+        <v>5.6392360000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1681.740000</v>
+        <v>1681.74</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>20312.667804</v>
+        <v>20312.667804000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.642408</v>
+        <v>5.6424079999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.950000</v>
+        <v>1977.95</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1829.220000</v>
+        <v>-1829.22</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>20323.242542</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.645345</v>
+        <v>5.6453449999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.950000</v>
+        <v>2365.9499999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2716.350000</v>
+        <v>-2716.35</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>20334.313713</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.648420</v>
+        <v>5.6484199999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2854.920000</v>
+        <v>2854.92</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3683.830000</v>
+        <v>-3683.83</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>20346.585231</v>
+        <v>20346.585231000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.651829</v>
+        <v>5.6518290000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>4277.840000</v>
+        <v>4277.84</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6017.800000</v>
+        <v>-6017.8</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>20174.808296</v>
+        <v>20174.808295999999</v>
       </c>
       <c r="B14" s="1">
-        <v>5.604113</v>
+        <v>5.6041129999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.310000</v>
+        <v>1240.31</v>
       </c>
       <c r="D14" s="1">
-        <v>-306.895000</v>
+        <v>-306.89499999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>20185.513940</v>
+        <v>20185.513940000001</v>
       </c>
       <c r="G14" s="1">
-        <v>5.607087</v>
+        <v>5.6070869999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1264.920000</v>
+        <v>1264.92</v>
       </c>
       <c r="I14" s="1">
-        <v>-264.352000</v>
+        <v>-264.35199999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>20196.377783</v>
       </c>
       <c r="L14" s="1">
-        <v>5.610105</v>
+        <v>5.6101049999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1300.400000</v>
+        <v>1300.4000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.995000</v>
+        <v>-201.995</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>20206.565144</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.612935</v>
+        <v>5.6129350000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>1311.730000</v>
+        <v>1311.73</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.775000</v>
+        <v>-183.77500000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>20216.757900</v>
+        <v>20216.757900000001</v>
       </c>
       <c r="V14" s="1">
-        <v>5.615766</v>
+        <v>5.6157659999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1324.630000</v>
+        <v>1324.63</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>20226.957661</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.618599</v>
+        <v>5.6185989999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1341.520000</v>
+        <v>1341.52</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.646000</v>
+        <v>-168.64599999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>20237.114010</v>
+        <v>20237.114010000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.621421</v>
+        <v>5.6214209999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1354.180000</v>
+        <v>1354.18</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.404000</v>
+        <v>-178.404</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>20247.711767</v>
+        <v>20247.711767000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.624364</v>
+        <v>5.6243639999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1374.820000</v>
+        <v>1374.82</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.392000</v>
+        <v>-208.392</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>20258.136644</v>
+        <v>20258.136643999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.627260</v>
+        <v>5.6272599999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.613000</v>
+        <v>-252.613</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>20269.133943</v>
+        <v>20269.133943000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.630315</v>
+        <v>5.6303150000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1421.030000</v>
+        <v>1421.03</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>20280.200215</v>
+        <v>20280.200215000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.633389</v>
+        <v>5.6333890000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1440.530000</v>
+        <v>1440.53</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.083000</v>
+        <v>-365.08300000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>20291.127048</v>
+        <v>20291.127047999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.636424</v>
+        <v>5.6364239999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.796000</v>
+        <v>-613.79600000000005</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>20301.625371</v>
+        <v>20301.625370999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.639340</v>
+        <v>5.6393399999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1681.750000</v>
+        <v>1681.75</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1058.880000</v>
+        <v>-1058.8800000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>20313.085436</v>
+        <v>20313.085436000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.642524</v>
+        <v>5.6425239999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.840000</v>
+        <v>1977.84</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1829.140000</v>
+        <v>-1829.14</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>20323.659182</v>
+        <v>20323.659181999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.645461</v>
+        <v>5.6454610000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2365.500000</v>
+        <v>2365.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2716.370000</v>
+        <v>-2716.37</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>20334.759151</v>
+        <v>20334.759150999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.648544</v>
+        <v>5.6485440000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2854.770000</v>
+        <v>2854.77</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3684.180000</v>
+        <v>-3684.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>20347.126863</v>
+        <v>20347.126863000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.651980</v>
+        <v>5.65198</v>
       </c>
       <c r="CE14" s="1">
-        <v>4294.830000</v>
+        <v>4294.83</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5999.680000</v>
+        <v>-5999.68</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>20175.454577</v>
       </c>
       <c r="B15" s="1">
-        <v>5.604293</v>
+        <v>5.6042930000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>1240.190000</v>
+        <v>1240.19</v>
       </c>
       <c r="D15" s="1">
-        <v>-306.586000</v>
+        <v>-306.58600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>20185.897844</v>
+        <v>20185.897843999999</v>
       </c>
       <c r="G15" s="1">
-        <v>5.607194</v>
+        <v>5.6071939999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.840000</v>
+        <v>1265.8399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.584000</v>
+        <v>-264.584</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>20196.723493</v>
+        <v>20196.723493000001</v>
       </c>
       <c r="L15" s="1">
         <v>5.610201</v>
       </c>
       <c r="M15" s="1">
-        <v>1300.300000</v>
+        <v>1300.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.903000</v>
+        <v>-201.90299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>20206.912839</v>
+        <v>20206.912839000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.613031</v>
+        <v>5.6130310000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>1311.790000</v>
+        <v>1311.79</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.837000</v>
+        <v>-183.83699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>20217.102122</v>
       </c>
       <c r="V15" s="1">
-        <v>5.615862</v>
+        <v>5.6158619999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.608000</v>
+        <v>-170.608</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>20227.381720</v>
+        <v>20227.381720000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.618717</v>
+        <v>5.6187170000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1341.400000</v>
+        <v>1341.4</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.714000</v>
+        <v>-168.714</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>20237.538289</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.621538</v>
+        <v>5.6215380000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1354.240000</v>
+        <v>1354.24</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.471000</v>
+        <v>-178.471</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>20248.008337</v>
+        <v>20248.008336999999</v>
       </c>
       <c r="AK15" s="1">
         <v>5.624447</v>
       </c>
       <c r="AL15" s="1">
-        <v>1374.770000</v>
+        <v>1374.77</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.379000</v>
+        <v>-208.37899999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>20258.445434</v>
+        <v>20258.445434000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.627346</v>
+        <v>5.6273460000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.609000</v>
+        <v>-252.60900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>20269.502501</v>
+        <v>20269.502500999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.630417</v>
+        <v>5.6304169999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>1421.050000</v>
+        <v>1421.05</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.791000</v>
+        <v>-312.791</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>20280.559288</v>
@@ -3972,165 +4388,165 @@
         <v>5.633489</v>
       </c>
       <c r="BA15" s="1">
-        <v>1440.540000</v>
+        <v>1440.54</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.088000</v>
+        <v>-365.08800000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>20291.486648</v>
+        <v>20291.486647999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.636524</v>
+        <v>5.6365239999999996</v>
       </c>
       <c r="BF15" s="1">
-        <v>1526.420000</v>
+        <v>1526.42</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.789000</v>
+        <v>-613.78899999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>20302.376314</v>
+        <v>20302.376314000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.639549</v>
+        <v>5.6395489999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1681.790000</v>
+        <v>1681.79</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1058.920000</v>
+        <v>-1058.92</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>20313.483724</v>
+        <v>20313.483724000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.642634</v>
+        <v>5.6426340000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.900000</v>
+        <v>1977.9</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1828.950000</v>
+        <v>-1828.95</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>20324.085709</v>
+        <v>20324.085708999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.645579</v>
+        <v>5.6455789999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2365.820000</v>
+        <v>2365.8200000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2715.910000</v>
+        <v>-2715.91</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>20335.183729</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.648662</v>
+        <v>5.6486619999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2854.570000</v>
+        <v>2854.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3684.370000</v>
+        <v>-3684.37</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>20347.962126</v>
+        <v>20347.962125999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.652212</v>
+        <v>5.6522119999999996</v>
       </c>
       <c r="CE15" s="1">
-        <v>4286.530000</v>
+        <v>4286.53</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6018.690000</v>
+        <v>-6018.69</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>20175.832993</v>
       </c>
       <c r="B16" s="1">
-        <v>5.604398</v>
+        <v>5.6043979999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1240.380000</v>
+        <v>1240.3800000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-306.725000</v>
+        <v>-306.72500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>20186.243028</v>
+        <v>20186.243028000001</v>
       </c>
       <c r="G16" s="1">
-        <v>5.607290</v>
+        <v>5.6072899999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.396000</v>
+        <v>-264.39600000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>20197.065764</v>
+        <v>20197.065763999999</v>
       </c>
       <c r="L16" s="1">
-        <v>5.610296</v>
+        <v>5.6102959999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1300.200000</v>
+        <v>1300.2</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.818000</v>
+        <v>-201.81800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>20207.259015</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.613128</v>
+        <v>5.6131279999999997</v>
       </c>
       <c r="R16" s="1">
-        <v>1311.760000</v>
+        <v>1311.76</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.819000</v>
+        <v>-183.81899999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>20217.518762</v>
@@ -4139,210 +4555,210 @@
         <v>5.615977</v>
       </c>
       <c r="W16" s="1">
-        <v>1324.560000</v>
+        <v>1324.56</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.659000</v>
+        <v>-170.65899999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>20227.657980</v>
+        <v>20227.65798</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.618794</v>
+        <v>5.6187940000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>1341.690000</v>
+        <v>1341.69</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.715000</v>
+        <v>-168.715</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>20237.805167</v>
+        <v>20237.805166999999</v>
       </c>
       <c r="AF16" s="1">
         <v>5.621613</v>
       </c>
       <c r="AG16" s="1">
-        <v>1354.260000</v>
+        <v>1354.26</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.458000</v>
+        <v>-178.458</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>20248.359540</v>
+        <v>20248.359540000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.624544</v>
+        <v>5.6245440000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1374.790000</v>
+        <v>1374.79</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.414000</v>
+        <v>-208.41399999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>20258.806243</v>
+        <v>20258.806242999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.627446</v>
+        <v>5.6274459999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.601000</v>
+        <v>-252.601</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>20269.867062</v>
+        <v>20269.867062000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.630519</v>
+        <v>5.6305189999999996</v>
       </c>
       <c r="AV16" s="1">
-        <v>1421.100000</v>
+        <v>1421.1</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.797000</v>
+        <v>-312.79700000000003</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>20281.275013</v>
+        <v>20281.275012999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.633688</v>
+        <v>5.6336880000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1440.540000</v>
+        <v>1440.54</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.088000</v>
+        <v>-365.08800000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>20292.212296</v>
+        <v>20292.212296000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.636726</v>
+        <v>5.6367260000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1526.410000</v>
+        <v>1526.41</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.766000</v>
+        <v>-613.76599999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>20302.752281</v>
+        <v>20302.752281000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>5.639653</v>
       </c>
       <c r="BK16" s="1">
-        <v>1681.750000</v>
+        <v>1681.75</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1058.890000</v>
+        <v>-1058.8900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>20313.907006</v>
+        <v>20313.907006000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.642752</v>
+        <v>5.6427519999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.880000</v>
+        <v>1977.88</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1829.070000</v>
+        <v>-1829.07</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>20324.511772</v>
+        <v>20324.511772000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.645698</v>
+        <v>5.6456980000000003</v>
       </c>
       <c r="BU16" s="1">
-        <v>2365.460000</v>
+        <v>2365.46</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2715.590000</v>
+        <v>-2715.59</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>20335.908350</v>
+        <v>20335.908350000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.648863</v>
+        <v>5.6488630000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2855.350000</v>
+        <v>2855.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3684.410000</v>
+        <v>-3684.41</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>20348.206189</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.652279</v>
+        <v>5.6522790000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4282.510000</v>
+        <v>4282.51</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6018.110000</v>
+        <v>-6018.11</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>20176.175234</v>
+        <v>20176.175233999998</v>
       </c>
       <c r="B17" s="1">
-        <v>5.604493</v>
+        <v>5.6044929999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.500000</v>
+        <v>1240.5</v>
       </c>
       <c r="D17" s="1">
-        <v>-306.816000</v>
+        <v>-306.81599999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>20186.589763</v>
@@ -4351,208 +4767,208 @@
         <v>5.607386</v>
       </c>
       <c r="H17" s="1">
-        <v>1266.690000</v>
+        <v>1266.69</v>
       </c>
       <c r="I17" s="1">
-        <v>-265.073000</v>
+        <v>-265.07299999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>20197.486340</v>
+        <v>20197.486339999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.610413</v>
+        <v>5.6104130000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1300.250000</v>
+        <v>1300.25</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.897000</v>
+        <v>-201.89699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>20207.679127</v>
+        <v>20207.679126999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.613244</v>
+        <v>5.6132439999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1311.700000</v>
+        <v>1311.7</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.870000</v>
+        <v>-183.87</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>20217.814378</v>
+        <v>20217.814377999999</v>
       </c>
       <c r="V17" s="1">
-        <v>5.616060</v>
+        <v>5.6160600000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1324.490000</v>
+        <v>1324.49</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>20228.004188</v>
+        <v>20228.004187999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.618890</v>
+        <v>5.6188900000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>1341.500000</v>
+        <v>1341.5</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.476000</v>
+        <v>-168.476</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>20238.155310</v>
+        <v>20238.155309999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.621710</v>
+        <v>5.6217100000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1354.260000</v>
+        <v>1354.26</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.473000</v>
+        <v>-178.47300000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>20248.705750</v>
+        <v>20248.705750000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.624640</v>
+        <v>5.6246400000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1374.740000</v>
+        <v>1374.74</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.390000</v>
+        <v>-208.39</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>20259.164852</v>
+        <v>20259.164852000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.627546</v>
+        <v>5.6275459999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1396.380000</v>
+        <v>1396.38</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.586000</v>
+        <v>-252.58600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>20270.594336</v>
+        <v>20270.594335999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.630721</v>
+        <v>5.6307210000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>1421.100000</v>
+        <v>1421.1</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.804000</v>
+        <v>-312.80399999999997</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>20281.634117</v>
+        <v>20281.634117000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.633787</v>
+        <v>5.6337869999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1440.540000</v>
+        <v>1440.54</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.089000</v>
+        <v>-365.089</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>20292.570406</v>
+        <v>20292.570405999999</v>
       </c>
       <c r="BE17" s="1">
         <v>5.636825</v>
       </c>
       <c r="BF17" s="1">
-        <v>1526.380000</v>
+        <v>1526.38</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.770000</v>
+        <v>-613.77</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>20303.127789</v>
+        <v>20303.127788999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.639758</v>
+        <v>5.6397579999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1681.740000</v>
+        <v>1681.74</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1058.800000</v>
+        <v>-1058.8</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>20314.607161</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.642946</v>
+        <v>5.6429460000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.940000</v>
+        <v>1977.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1828.880000</v>
+        <v>-1828.88</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>20325.226507</v>
+        <v>20325.226506999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.645896</v>
+        <v>5.6458959999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.170000</v>
+        <v>2366.17</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2715.330000</v>
+        <v>-2715.33</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>20336.031853</v>
@@ -4561,120 +4977,120 @@
         <v>5.648898</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2854.610000</v>
+        <v>2854.61</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3684.520000</v>
+        <v>-3684.52</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>20348.725470</v>
+        <v>20348.725470000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.652424</v>
+        <v>5.6524239999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4296.740000</v>
+        <v>4296.74</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6008.940000</v>
+        <v>-6008.94</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>20176.597328</v>
       </c>
       <c r="B18" s="1">
-        <v>5.604610</v>
+        <v>5.6046100000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1240.450000</v>
+        <v>1240.45</v>
       </c>
       <c r="D18" s="1">
-        <v>-306.697000</v>
+        <v>-306.697</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>20187.008354</v>
+        <v>20187.008354000001</v>
       </c>
       <c r="G18" s="1">
-        <v>5.607502</v>
+        <v>5.6075020000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1265.170000</v>
+        <v>1265.17</v>
       </c>
       <c r="I18" s="1">
-        <v>-264.465000</v>
+        <v>-264.46499999999997</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>20197.761620</v>
+        <v>20197.761620000001</v>
       </c>
       <c r="L18" s="1">
-        <v>5.610489</v>
+        <v>5.6104890000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>1300.330000</v>
+        <v>1300.33</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.742000</v>
+        <v>-201.74199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>20207.972758</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.613326</v>
+        <v>5.6133259999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>1311.590000</v>
+        <v>1311.59</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.792000</v>
+        <v>-183.792</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>20218.156617</v>
+        <v>20218.156617000001</v>
       </c>
       <c r="V18" s="1">
         <v>5.616155</v>
       </c>
       <c r="W18" s="1">
-        <v>1324.500000</v>
+        <v>1324.5</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.664000</v>
+        <v>-170.66399999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>20228.352876</v>
+        <v>20228.352876000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.618987</v>
+        <v>5.6189869999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1341.430000</v>
+        <v>1341.43</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.588000</v>
+        <v>-168.58799999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>20238.494079</v>
@@ -4683,13 +5099,13 @@
         <v>5.621804</v>
       </c>
       <c r="AG18" s="1">
-        <v>1354.170000</v>
+        <v>1354.17</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.489000</v>
+        <v>-178.489</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>20249.407055</v>
@@ -4698,2206 +5114,2207 @@
         <v>5.624835</v>
       </c>
       <c r="AL18" s="1">
-        <v>1374.790000</v>
+        <v>1374.79</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.388000</v>
+        <v>-208.38800000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>20259.892977</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.627748</v>
+        <v>5.6277480000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.584000</v>
+        <v>-252.584</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>20270.985507</v>
+        <v>20270.985507000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.630829</v>
+        <v>5.6308290000000003</v>
       </c>
       <c r="AV18" s="1">
-        <v>1421.080000</v>
+        <v>1421.08</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.778000</v>
+        <v>-312.77800000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>20281.992260</v>
+        <v>20281.992259999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.633887</v>
+        <v>5.6338869999999996</v>
       </c>
       <c r="BA18" s="1">
-        <v>1440.530000</v>
+        <v>1440.53</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.047000</v>
+        <v>-365.04700000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>20292.949350</v>
+        <v>20292.949349999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.636930</v>
+        <v>5.6369300000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.779000</v>
+        <v>-613.779</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>20303.814746</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.639949</v>
+        <v>5.6399489999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1681.780000</v>
+        <v>1681.78</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1058.790000</v>
+        <v>-1058.79</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>20314.720747</v>
+        <v>20314.720746999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.642978</v>
+        <v>5.6429780000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1977.940000</v>
+        <v>1977.94</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1829.020000</v>
+        <v>-1829.02</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>20325.358939</v>
+        <v>20325.358939000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.645933</v>
+        <v>5.6459330000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.110000</v>
+        <v>2366.11</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2715.310000</v>
+        <v>-2715.31</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>20336.477756</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.649022</v>
+        <v>5.6490220000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2855.130000</v>
+        <v>2855.13</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3683.490000</v>
+        <v>-3683.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>20349.241805</v>
+        <v>20349.241805000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.652567</v>
+        <v>5.6525670000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>4286.320000</v>
+        <v>4286.32</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5994.670000</v>
+        <v>-5994.67</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>20176.877104</v>
+        <v>20176.877103999999</v>
       </c>
       <c r="B19" s="1">
-        <v>5.604688</v>
+        <v>5.6046880000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1240.100000</v>
+        <v>1240.0999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-306.182000</v>
+        <v>-306.18200000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>20187.284632</v>
+        <v>20187.284631999999</v>
       </c>
       <c r="G19" s="1">
-        <v>5.607579</v>
+        <v>5.6075790000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>1265.640000</v>
+        <v>1265.6400000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-264.193000</v>
+        <v>-264.19299999999998</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>20198.109811</v>
+        <v>20198.109810999998</v>
       </c>
       <c r="L19" s="1">
-        <v>5.610586</v>
+        <v>5.6105859999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1300.390000</v>
+        <v>1300.3900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.855000</v>
+        <v>-201.85499999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>20208.317976</v>
+        <v>20208.317975999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.613422</v>
+        <v>5.6134219999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1311.620000</v>
+        <v>1311.62</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.761000</v>
+        <v>-183.761</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>20218.501832</v>
+        <v>20218.501832000002</v>
       </c>
       <c r="V19" s="1">
-        <v>5.616251</v>
+        <v>5.6162510000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1324.460000</v>
+        <v>1324.46</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.675000</v>
+        <v>-170.67500000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>20229.051242</v>
+        <v>20229.051242000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.619181</v>
+        <v>5.6191810000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1341.320000</v>
+        <v>1341.32</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.557000</v>
+        <v>-168.55699999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>20239.181039</v>
+        <v>20239.181038999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.621995</v>
+        <v>5.6219950000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.460000</v>
+        <v>-178.46</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>20249.752799</v>
+        <v>20249.752799000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.624931</v>
+        <v>5.6249310000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1374.780000</v>
+        <v>1374.78</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.390000</v>
+        <v>-208.39</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>20260.268945</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.627852</v>
+        <v>5.6278519999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1396.420000</v>
+        <v>1396.42</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.567000</v>
+        <v>-252.56700000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>20271.349074</v>
+        <v>20271.349074000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.630930</v>
+        <v>5.6309300000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.784000</v>
+        <v>-312.78399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>20282.647941</v>
+        <v>20282.647940999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.634069</v>
+        <v>5.6340690000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1440.550000</v>
+        <v>1440.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.049000</v>
+        <v>-365.04899999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>20293.446342</v>
+        <v>20293.446341999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.637068</v>
+        <v>5.6370680000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1526.410000</v>
+        <v>1526.41</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.752000</v>
+        <v>-613.75199999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>20304.253671</v>
+        <v>20304.253670999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.640070</v>
+        <v>5.6400699999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1681.730000</v>
+        <v>1681.73</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1058.870000</v>
+        <v>-1058.8699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>20315.146313</v>
+        <v>20315.146313000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.643096</v>
+        <v>5.6430959999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1977.690000</v>
+        <v>1977.69</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1828.960000</v>
+        <v>-1828.96</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>20325.796906</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.646055</v>
+        <v>5.6460549999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>2366.190000</v>
+        <v>2366.19</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2715.020000</v>
+        <v>-2715.02</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>20336.911757</v>
+        <v>20336.911757000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.649142</v>
+        <v>5.6491420000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2854.810000</v>
+        <v>2854.81</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3683.710000</v>
+        <v>-3683.71</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>20349.758635</v>
+        <v>20349.758634999998</v>
       </c>
       <c r="CD19" s="1">
         <v>5.652711</v>
       </c>
       <c r="CE19" s="1">
-        <v>4273.520000</v>
+        <v>4273.5200000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6005.350000</v>
+        <v>-6005.35</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>20177.220335</v>
+        <v>20177.220335000002</v>
       </c>
       <c r="B20" s="1">
-        <v>5.604783</v>
+        <v>5.6047830000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1240.220000</v>
+        <v>1240.22</v>
       </c>
       <c r="D20" s="1">
-        <v>-306.895000</v>
+        <v>-306.89499999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>20187.628882</v>
+        <v>20187.628882000001</v>
       </c>
       <c r="G20" s="1">
-        <v>5.607675</v>
+        <v>5.6076750000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1265.340000</v>
+        <v>1265.3399999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-264.151000</v>
+        <v>-264.15100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>20198.452548</v>
+        <v>20198.452548000001</v>
       </c>
       <c r="L20" s="1">
-        <v>5.610681</v>
+        <v>5.6106809999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1300.300000</v>
+        <v>1300.3</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.453000</v>
+        <v>-201.453</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>20208.667691</v>
+        <v>20208.667690999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.613519</v>
+        <v>5.6135190000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1311.630000</v>
+        <v>1311.63</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.899000</v>
+        <v>-183.899</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>20219.185351</v>
       </c>
       <c r="V20" s="1">
-        <v>5.616440</v>
+        <v>5.6164399999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1324.550000</v>
+        <v>1324.55</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.667000</v>
+        <v>-170.667</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>20229.398126</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.619277</v>
+        <v>5.6192770000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>1341.570000</v>
+        <v>1341.57</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.660000</v>
+        <v>-168.66</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>20239.524302</v>
+        <v>20239.524302000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.622090</v>
+        <v>5.62209</v>
       </c>
       <c r="AG20" s="1">
-        <v>1354.230000</v>
+        <v>1354.23</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.383000</v>
+        <v>-178.38300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>20250.102447</v>
+        <v>20250.102447000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.625028</v>
+        <v>5.6250280000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>1374.720000</v>
+        <v>1374.72</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.436000</v>
+        <v>-208.43600000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>20260.930640</v>
+        <v>20260.930639999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.628036</v>
+        <v>5.6280359999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.571000</v>
+        <v>-252.571</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>20272.009746</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.631114</v>
+        <v>5.6311140000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>20283.069539</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.634186</v>
+        <v>5.6341859999999997</v>
       </c>
       <c r="BA20" s="1">
-        <v>1440.520000</v>
+        <v>1440.52</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.036000</v>
+        <v>-365.036</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>20293.655157</v>
+        <v>20293.655157000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.637126</v>
+        <v>5.6371260000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1526.420000</v>
+        <v>1526.42</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.754000</v>
+        <v>-613.75400000000002</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>20304.628646</v>
+        <v>20304.628646000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.640175</v>
+        <v>5.6401750000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1681.810000</v>
+        <v>1681.81</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1058.870000</v>
+        <v>-1058.8699999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>20315.543112</v>
+        <v>20315.543111999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.643206</v>
+        <v>5.6432060000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.830000</v>
+        <v>1977.83</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1828.780000</v>
+        <v>-1828.78</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>20326.226442</v>
+        <v>20326.226441999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.646174</v>
+        <v>5.6461740000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>2366.390000</v>
+        <v>2366.39</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2714.980000</v>
+        <v>-2714.98</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>20337.334844</v>
+        <v>20337.334844000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.649260</v>
+        <v>5.6492599999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2854.520000</v>
+        <v>2854.52</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3683.670000</v>
+        <v>-3683.67</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>20350.280955</v>
+        <v>20350.280954999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.652856</v>
+        <v>5.6528559999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4274.480000</v>
+        <v>4274.4799999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6001.010000</v>
+        <v>-6001.01</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>20177.561054</v>
+        <v>20177.561054000002</v>
       </c>
       <c r="B21" s="1">
-        <v>5.604878</v>
+        <v>5.6048780000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1240.040000</v>
+        <v>1240.04</v>
       </c>
       <c r="D21" s="1">
-        <v>-306.684000</v>
+        <v>-306.68400000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>20187.974593</v>
+        <v>20187.974592999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.607771</v>
+        <v>5.6077709999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>1265.070000</v>
+        <v>1265.07</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.409000</v>
+        <v>-264.40899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>20199.142482</v>
+        <v>20199.142481999999</v>
       </c>
       <c r="L21" s="1">
-        <v>5.610873</v>
+        <v>5.6108729999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1300.170000</v>
+        <v>1300.17</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.312000</v>
+        <v>-202.31200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>20209.410698</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.613725</v>
+        <v>5.6137249999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>1311.620000</v>
+        <v>1311.62</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.955000</v>
+        <v>-183.95500000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>20219.529544</v>
+        <v>20219.529544000001</v>
       </c>
       <c r="V21" s="1">
         <v>5.616536</v>
       </c>
       <c r="W21" s="1">
-        <v>1324.380000</v>
+        <v>1324.38</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.680000</v>
+        <v>-170.68</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>20229.748651</v>
+        <v>20229.748651000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.619375</v>
+        <v>5.6193749999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1341.480000</v>
+        <v>1341.48</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.540000</v>
+        <v>-168.54</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>20239.867996</v>
+        <v>20239.867996000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.622186</v>
+        <v>5.6221860000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1354.220000</v>
+        <v>1354.22</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.302000</v>
+        <v>-178.30199999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>20250.754687</v>
+        <v>20250.754687000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.625210</v>
+        <v>5.62521</v>
       </c>
       <c r="AL21" s="1">
-        <v>1374.710000</v>
+        <v>1374.71</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.395000</v>
+        <v>-208.39500000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>20261.351216</v>
+        <v>20261.351215999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.628153</v>
+        <v>5.6281530000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1396.400000</v>
+        <v>1396.4</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.562000</v>
+        <v>-252.56200000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>20272.476481</v>
+        <v>20272.476481000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.631243</v>
+        <v>5.6312430000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1421.100000</v>
+        <v>1421.1</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.767000</v>
+        <v>-312.767</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>20283.455924</v>
+        <v>20283.455924000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.634293</v>
+        <v>5.6342930000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1440.520000</v>
+        <v>1440.52</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.072000</v>
+        <v>-365.072</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>20294.013306</v>
+        <v>20294.013306000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.637226</v>
+        <v>5.6372260000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1526.390000</v>
+        <v>1526.39</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.749000</v>
+        <v>-613.74900000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>20305.003622</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.640279</v>
+        <v>5.6402789999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1681.690000</v>
+        <v>1681.69</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1058.810000</v>
+        <v>-1058.81</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>20315.962728</v>
+        <v>20315.962727999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.643323</v>
+        <v>5.6433229999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1977.870000</v>
+        <v>1977.87</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1829.010000</v>
+        <v>-1829.01</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>20326.649033</v>
+        <v>20326.649033000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.646291</v>
+        <v>5.6462909999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>2366.570000</v>
+        <v>2366.5700000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2714.500000</v>
+        <v>-2714.5</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>20337.757930</v>
+        <v>20337.75793</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.649377</v>
+        <v>5.6493770000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2854.650000</v>
+        <v>2854.65</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3684.280000</v>
+        <v>-3684.28</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>20350.830489</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.653008</v>
+        <v>5.6530079999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>4290.770000</v>
+        <v>4290.7700000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5995.960000</v>
+        <v>-5995.96</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>20178.243053</v>
+        <v>20178.243052999998</v>
       </c>
       <c r="B22" s="1">
-        <v>5.605068</v>
+        <v>5.6050680000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1240.490000</v>
+        <v>1240.49</v>
       </c>
       <c r="D22" s="1">
-        <v>-306.811000</v>
+        <v>-306.81099999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>20188.664000</v>
+        <v>20188.664000000001</v>
       </c>
       <c r="G22" s="1">
-        <v>5.607962</v>
+        <v>5.6079619999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>1265.790000</v>
+        <v>1265.79</v>
       </c>
       <c r="I22" s="1">
-        <v>-264.077000</v>
+        <v>-264.077</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>20199.489713</v>
+        <v>20199.489712999999</v>
       </c>
       <c r="L22" s="1">
-        <v>5.610969</v>
+        <v>5.6109689999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1299.990000</v>
+        <v>1299.99</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.183000</v>
+        <v>-202.18299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>20209.722179</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.613812</v>
+        <v>5.6138120000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1311.490000</v>
+        <v>1311.49</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.069000</v>
+        <v>-184.06899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>20219.875256</v>
+        <v>20219.875255999999</v>
       </c>
       <c r="V22" s="1">
-        <v>5.616632</v>
+        <v>5.6166320000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.541000</v>
+        <v>-170.541</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>20230.391928</v>
+        <v>20230.391928000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.619553</v>
+        <v>5.6195529999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1341.440000</v>
+        <v>1341.44</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.522000</v>
+        <v>-168.52199999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>20240.517259</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.622366</v>
+        <v>5.6223660000000004</v>
       </c>
       <c r="AG22" s="1">
-        <v>1354.220000</v>
+        <v>1354.22</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.288000</v>
+        <v>-178.28800000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>20251.147021</v>
+        <v>20251.147021000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.625319</v>
+        <v>5.6253190000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1374.740000</v>
+        <v>1374.74</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.433000</v>
+        <v>-208.43299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>20261.710320</v>
+        <v>20261.710319999998</v>
       </c>
       <c r="AP22" s="1">
         <v>5.628253</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1396.430000</v>
+        <v>1396.43</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.585000</v>
+        <v>-252.58500000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>20272.842033</v>
+        <v>20272.842033000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.631345</v>
+        <v>5.6313449999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1421.100000</v>
+        <v>1421.1</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.805000</v>
+        <v>-312.80500000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>20283.814531</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.634393</v>
+        <v>5.6343930000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1440.490000</v>
+        <v>1440.49</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.041000</v>
+        <v>-365.041</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>20294.419492</v>
+        <v>20294.419492000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.637339</v>
+        <v>5.6373389999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1526.380000</v>
+        <v>1526.38</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.761000</v>
+        <v>-613.76099999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>20305.421751</v>
+        <v>20305.421751000002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.640395</v>
+        <v>5.6403949999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1681.750000</v>
+        <v>1681.75</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1058.790000</v>
+        <v>-1058.79</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>20316.362007</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.643434</v>
+        <v>5.6434340000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1977.930000</v>
+        <v>1977.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.770000</v>
+        <v>-1828.77</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>20327.066170</v>
+        <v>20327.066169999998</v>
       </c>
       <c r="BT22" s="1">
         <v>5.646407</v>
       </c>
       <c r="BU22" s="1">
-        <v>2366.690000</v>
+        <v>2366.69</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2714.480000</v>
+        <v>-2714.48</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>20338.181514</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.649495</v>
+        <v>5.6494949999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2855.260000</v>
+        <v>2855.26</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3683.910000</v>
+        <v>-3683.91</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>20351.360713</v>
+        <v>20351.360712999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.653156</v>
+        <v>5.6531560000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4274.100000</v>
+        <v>4274.1000000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6000.920000</v>
+        <v>-6000.92</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>20178.586781</v>
+        <v>20178.586781000002</v>
       </c>
       <c r="B23" s="1">
-        <v>5.605163</v>
+        <v>5.6051630000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1240.230000</v>
+        <v>1240.23</v>
       </c>
       <c r="D23" s="1">
-        <v>-306.651000</v>
+        <v>-306.65100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>20189.007727</v>
       </c>
       <c r="G23" s="1">
-        <v>5.608058</v>
+        <v>5.6080579999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1265.360000</v>
+        <v>1265.3599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-264.396000</v>
+        <v>-264.39600000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>20199.835889</v>
+        <v>20199.835889000002</v>
       </c>
       <c r="L23" s="1">
-        <v>5.611066</v>
+        <v>5.6110660000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1300.320000</v>
+        <v>1300.32</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.992000</v>
+        <v>-201.99199999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>20210.359013</v>
+        <v>20210.359013000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.613989</v>
+        <v>5.6139890000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1311.440000</v>
+        <v>1311.44</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.145000</v>
+        <v>-184.14500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>20220.522533</v>
+        <v>20220.522532999999</v>
       </c>
       <c r="V23" s="1">
-        <v>5.616812</v>
+        <v>5.6168120000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>1324.480000</v>
+        <v>1324.48</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.609000</v>
+        <v>-170.60900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>20230.792697</v>
+        <v>20230.792697000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.619665</v>
+        <v>5.6196650000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>1341.520000</v>
+        <v>1341.52</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.515000</v>
+        <v>-168.51499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>20240.898684</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.622472</v>
+        <v>5.6224720000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1354.270000</v>
+        <v>1354.27</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.249000</v>
+        <v>-178.249</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>20251.493229</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.625415</v>
+        <v>5.6254150000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1374.760000</v>
+        <v>1374.76</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.377000</v>
+        <v>-208.37700000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>20262.060991</v>
+        <v>20262.060990999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.628350</v>
+        <v>5.6283500000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.529000</v>
+        <v>-252.529</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>20273.206594</v>
+        <v>20273.206593999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.631446</v>
+        <v>5.6314460000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.749000</v>
+        <v>-312.74900000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>20284.226378</v>
+        <v>20284.226377999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.634507</v>
+        <v>5.6345070000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1440.520000</v>
+        <v>1440.52</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.063000</v>
+        <v>-365.06299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>20294.737454</v>
+        <v>20294.737453999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.637427</v>
+        <v>5.6374269999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1526.430000</v>
+        <v>1526.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.728000</v>
+        <v>-613.72799999999995</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>20305.764024</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.640490</v>
+        <v>5.6404899999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1681.700000</v>
+        <v>1681.7</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1058.790000</v>
+        <v>-1058.79</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>20316.783110</v>
+        <v>20316.78311</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.643551</v>
+        <v>5.6435510000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1977.740000</v>
+        <v>1977.74</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.840000</v>
+        <v>-1828.84</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>20327.492728</v>
+        <v>20327.492728000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.646526</v>
+        <v>5.6465259999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.240000</v>
+        <v>2367.2399999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2714.380000</v>
+        <v>-2714.38</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>20338.598154</v>
+        <v>20338.598153999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.649611</v>
+        <v>5.6496110000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2854.450000</v>
+        <v>2854.45</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3683.600000</v>
+        <v>-3683.6</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>20351.877544</v>
+        <v>20351.877543999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.653299</v>
+        <v>5.6532989999999996</v>
       </c>
       <c r="CE23" s="1">
-        <v>4290.460000</v>
+        <v>4290.46</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6015.090000</v>
+        <v>-6015.09</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>20178.928525</v>
+        <v>20178.928524999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.605258</v>
+        <v>5.6052580000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1240.420000</v>
+        <v>1240.42</v>
       </c>
       <c r="D24" s="1">
-        <v>-306.624000</v>
+        <v>-306.62400000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>20189.350464</v>
+        <v>20189.350463999999</v>
       </c>
       <c r="G24" s="1">
-        <v>5.608153</v>
+        <v>5.6081529999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>1265.610000</v>
+        <v>1265.6099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-264.379000</v>
+        <v>-264.37900000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>20200.484161</v>
       </c>
       <c r="L24" s="1">
-        <v>5.611246</v>
+        <v>5.6112460000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>1299.950000</v>
+        <v>1299.95</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.119000</v>
+        <v>-202.119</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>20210.756339</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.614099</v>
+        <v>5.6140990000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>1311.520000</v>
+        <v>1311.52</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.100000</v>
+        <v>-184.1</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>20220.903495</v>
+        <v>20220.903494999999</v>
       </c>
       <c r="V24" s="1">
-        <v>5.616918</v>
+        <v>5.6169180000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.657000</v>
+        <v>-170.65700000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>20231.143369</v>
+        <v>20231.143369000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.619762</v>
+        <v>5.6197619999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>1341.690000</v>
+        <v>1341.69</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.596000</v>
+        <v>-168.596</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>20241.240923</v>
+        <v>20241.240923000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.622567</v>
+        <v>5.6225670000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1354.260000</v>
+        <v>1354.26</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.212000</v>
+        <v>-178.21199999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>20251.843437</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.625512</v>
+        <v>5.6255119999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1374.760000</v>
+        <v>1374.76</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.425000</v>
+        <v>-208.42500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>20262.487054</v>
+        <v>20262.487054000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.628469</v>
+        <v>5.6284689999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1396.390000</v>
+        <v>1396.39</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.579000</v>
+        <v>-252.57900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>20273.638111</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.631566</v>
+        <v>5.6315660000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1421.080000</v>
+        <v>1421.08</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.754000</v>
+        <v>-312.75400000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>20284.533270</v>
+        <v>20284.53327</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.634593</v>
+        <v>5.6345929999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1440.530000</v>
+        <v>1440.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.033000</v>
+        <v>-365.03300000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>20295.097068</v>
+        <v>20295.097067999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.637527</v>
+        <v>5.6375270000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1526.400000</v>
+        <v>1526.4</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.777000</v>
+        <v>-613.77700000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>20306.154342</v>
+        <v>20306.154342000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.640598</v>
+        <v>5.6405979999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1681.760000</v>
+        <v>1681.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1058.800000</v>
+        <v>-1058.8</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>20317.180406</v>
+        <v>20317.180405999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.643661</v>
+        <v>5.6436609999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1977.800000</v>
+        <v>1977.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1828.830000</v>
+        <v>-1828.83</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>20327.912840</v>
+        <v>20327.912840000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.646642</v>
+        <v>5.6466419999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.350000</v>
+        <v>2367.35</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2713.990000</v>
+        <v>-2713.99</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>20339.051993</v>
+        <v>20339.051993000001</v>
       </c>
       <c r="BY24" s="1">
         <v>5.649737</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2854.430000</v>
+        <v>2854.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3683.390000</v>
+        <v>-3683.39</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>20352.419211</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.653450</v>
+        <v>5.6534500000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>4284.220000</v>
+        <v>4284.22</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5993.830000</v>
+        <v>-5993.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>20179.583772</v>
+        <v>20179.583772000002</v>
       </c>
       <c r="B25" s="1">
-        <v>5.605440</v>
+        <v>5.6054399999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1240.200000</v>
+        <v>1240.2</v>
       </c>
       <c r="D25" s="1">
-        <v>-306.422000</v>
+        <v>-306.42200000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>20189.999726</v>
+        <v>20189.999725999998</v>
       </c>
       <c r="G25" s="1">
         <v>5.608333</v>
       </c>
       <c r="H25" s="1">
-        <v>1265.190000</v>
+        <v>1265.19</v>
       </c>
       <c r="I25" s="1">
-        <v>-264.547000</v>
+        <v>-264.54700000000003</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>20200.873025</v>
+        <v>20200.873025000001</v>
       </c>
       <c r="L25" s="1">
-        <v>5.611354</v>
+        <v>5.6113540000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1299.950000</v>
+        <v>1299.95</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.499000</v>
+        <v>-201.499</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>20211.107474</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.614197</v>
+        <v>5.6141969999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1311.650000</v>
+        <v>1311.65</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.122000</v>
+        <v>-184.12200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>20221.249670</v>
+        <v>20221.249670000001</v>
       </c>
       <c r="V25" s="1">
-        <v>5.617014</v>
+        <v>5.6170140000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>1324.420000</v>
+        <v>1324.42</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.685000</v>
+        <v>-170.685</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>20231.487591</v>
+        <v>20231.487591000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.619858</v>
+        <v>5.6198579999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1341.460000</v>
+        <v>1341.46</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.598000</v>
+        <v>-168.59800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>20241.585674</v>
+        <v>20241.585674000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.622663</v>
+        <v>5.6226630000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1354.290000</v>
+        <v>1354.29</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.293000</v>
+        <v>-178.29300000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>20252.258557</v>
+        <v>20252.258557000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.625627</v>
+        <v>5.6256269999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>1374.770000</v>
+        <v>1374.77</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.395000</v>
+        <v>-208.39500000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>20262.794078</v>
+        <v>20262.794077999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.628554</v>
+        <v>5.6285540000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1396.410000</v>
+        <v>1396.41</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.552000</v>
+        <v>-252.55199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>20273.926784</v>
+        <v>20273.926783999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.631646</v>
+        <v>5.6316459999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1421.060000</v>
+        <v>1421.06</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.789000</v>
+        <v>-312.78899999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>20284.892337</v>
+        <v>20284.892337000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.634692</v>
+        <v>5.6346920000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1440.510000</v>
+        <v>1440.51</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.105000</v>
+        <v>-365.10500000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>20295.460595</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.637628</v>
+        <v>5.6376280000000003</v>
       </c>
       <c r="BF25" s="1">
-        <v>1526.380000</v>
+        <v>1526.38</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.741000</v>
+        <v>-613.74099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>20306.529348</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.640703</v>
+        <v>5.6407030000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1681.730000</v>
+        <v>1681.73</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1058.750000</v>
+        <v>-1058.75</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>20317.600023</v>
+        <v>20317.600022999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.643778</v>
+        <v>5.6437780000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1977.930000</v>
+        <v>1977.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.780000</v>
+        <v>-1828.78</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>20328.337415</v>
+        <v>20328.337415000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.646760</v>
+        <v>5.6467599999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.620000</v>
+        <v>2367.62</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2713.690000</v>
+        <v>-2713.69</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>20339.501897</v>
+        <v>20339.501896999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.649862</v>
+        <v>5.6498619999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2854.760000</v>
+        <v>2854.76</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3683.190000</v>
+        <v>-3683.19</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>20352.961304</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.653600</v>
+        <v>5.6536</v>
       </c>
       <c r="CE25" s="1">
-        <v>4276.630000</v>
+        <v>4276.63</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6013.820000</v>
+        <v>-6013.82</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>20179.953259</v>
+        <v>20179.953259000002</v>
       </c>
       <c r="B26" s="1">
-        <v>5.605543</v>
+        <v>5.6055429999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.290000</v>
+        <v>1240.29</v>
       </c>
       <c r="D26" s="1">
-        <v>-306.590000</v>
+        <v>-306.58999999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>20190.387598</v>
+        <v>20190.387598000001</v>
       </c>
       <c r="G26" s="1">
         <v>5.608441</v>
       </c>
       <c r="H26" s="1">
-        <v>1265.470000</v>
+        <v>1265.47</v>
       </c>
       <c r="I26" s="1">
-        <v>-264.355000</v>
+        <v>-264.35500000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>20201.218735</v>
+        <v>20201.218734999999</v>
       </c>
       <c r="L26" s="1">
-        <v>5.611450</v>
+        <v>5.6114499999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>1300.590000</v>
+        <v>1300.5899999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.740000</v>
+        <v>-201.74</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>20211.457186</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.614294</v>
+        <v>5.6142940000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1311.590000</v>
+        <v>1311.59</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.176000</v>
+        <v>-184.17599999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>20221.592405</v>
+        <v>20221.592404999999</v>
       </c>
       <c r="V26" s="1">
-        <v>5.617109</v>
+        <v>5.6171090000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1324.570000</v>
+        <v>1324.57</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.639000</v>
+        <v>-170.63900000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>20231.913657</v>
+        <v>20231.913657000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.619976</v>
+        <v>5.6199760000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1341.330000</v>
+        <v>1341.33</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.752000</v>
+        <v>-168.75200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>20242.019642</v>
+        <v>20242.019641999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.622783</v>
+        <v>5.6227830000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1354.280000</v>
+        <v>1354.28</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.315000</v>
+        <v>-178.315</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>20252.550701</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.625709</v>
+        <v>5.6257089999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>1374.760000</v>
+        <v>1374.76</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.357000</v>
+        <v>-208.357</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>20263.153215</v>
+        <v>20263.153214999998</v>
       </c>
       <c r="AP26" s="1">
         <v>5.628654</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1396.380000</v>
+        <v>1396.38</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.540000</v>
+        <v>-252.54</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>20274.299775</v>
+        <v>20274.299774999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.631750</v>
+        <v>5.6317500000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>1421.070000</v>
+        <v>1421.07</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.789000</v>
+        <v>-312.78899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>20285.251936</v>
+        <v>20285.251936000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>5.634792</v>
       </c>
       <c r="BA26" s="1">
-        <v>1440.570000</v>
+        <v>1440.57</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.103000</v>
+        <v>-365.10300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>20296.184755</v>
+        <v>20296.184754999998</v>
       </c>
       <c r="BE26" s="1">
         <v>5.637829</v>
       </c>
       <c r="BF26" s="1">
-        <v>1526.300000</v>
+        <v>1526.3</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.768000</v>
+        <v>-613.76800000000003</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>20307.277779</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.640910</v>
+        <v>5.6409099999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1681.740000</v>
+        <v>1681.74</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1058.740000</v>
+        <v>-1058.74</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>20317.998310</v>
+        <v>20317.998309999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.643888</v>
+        <v>5.6438879999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1977.880000</v>
+        <v>1977.88</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.800000</v>
+        <v>-1828.8</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>20328.765959</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.646879</v>
+        <v>5.6468790000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.990000</v>
+        <v>2367.9899999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2713.860000</v>
+        <v>-2713.86</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>20339.923491</v>
+        <v>20339.923491000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.649979</v>
+        <v>5.6499790000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2854.320000</v>
+        <v>2854.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3682.580000</v>
+        <v>-3682.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>20353.804534</v>
+        <v>20353.804533999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.653835</v>
+        <v>5.6538349999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4279.260000</v>
+        <v>4279.26</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5995.440000</v>
+        <v>-5995.44</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>